--- a/trend_results/Rivers/MangaatuaatusWoodvilleSTP_28a4b7b3a1.xlsx
+++ b/trend_results/Rivers/MangaatuaatusWoodvilleSTP_28a4b7b3a1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.87651071136037</v>
+        <v>0.12348928863963</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.690285304094479</v>
+        <v>0.309714695905521</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.996441982200185</v>
+        <v>0.003558017799815</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.979589737580487</v>
+        <v>0.020410262419513</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.40324797025367</v>
+        <v>0.01090277057084</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0067567567567567</v>
       </c>
       <c r="H28" t="n">
+        <v>0.621621621621622</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.487</v>
+        <v>1.4</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0158988489740238</v>
+        <v>-0.0401373626373627</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0501443829271408</v>
+        <v>-0.0822829189123133</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0341117111099161</v>
+        <v>-0.0099608943520433</v>
       </c>
       <c r="N28" t="n">
-        <v>-3.2646507133519</v>
+        <v>-2.86695447409733</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,7 +2993,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3003,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3018,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>2.30946446859726e-05</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.835227272727273</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>111.58</v>
+        <v>10.045</v>
       </c>
       <c r="K29" t="n">
-        <v>2.35760514340872</v>
+        <v>-0.06600153426525759</v>
       </c>
       <c r="L29" t="n">
-        <v>-16.2280123268786</v>
+        <v>-0.0927586000484176</v>
       </c>
       <c r="M29" t="n">
-        <v>19.143103907387</v>
+        <v>-0.0382477210037384</v>
       </c>
       <c r="N29" t="n">
-        <v>2.11292807260147</v>
+        <v>-0.657058579046865</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3080,7 +3084,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3090,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.40324797025367</v>
+        <v>0.436190886966216</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.240223463687151</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.44</v>
+        <v>0.022</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0940044971752778</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.583311135411249</v>
+        <v>-0.0001999527934922</v>
       </c>
       <c r="M30" t="n">
-        <v>0.344890958262339</v>
+        <v>0.0002103252071808</v>
       </c>
       <c r="N30" t="n">
-        <v>-1.4596971611068</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3167,7 +3175,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3177,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3192,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.20948086257967</v>
+        <v>0.262603587249688</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0055865921787709</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9</v>
+        <v>0.748603351955307</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4685</v>
+        <v>488</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0084443581780538</v>
+        <v>4.48710073710074</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0311416801636918</v>
+        <v>-7.56852799289902</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0141165228562359</v>
+        <v>16.9481920336172</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.80242437098267</v>
+        <v>0.919487855963266</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3254,7 +3266,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3264,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.360257393568128</v>
+        <v>0.897858259151378</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.321637426900585</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>112.29</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.9662698412698409</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.43936591718656</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2.48735503344938</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.8605128161633639</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3312,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3341,7 +3357,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3351,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.704247481502542</v>
+        <v>0.149308615910572</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.280254777070064</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.101910828025478</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>5.962</v>
+        <v>0.004</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0799120095124852</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.157451352441294</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.21716490993511</v>
+        <v>0.0001425644028103</v>
       </c>
       <c r="N33" t="n">
-        <v>1.34035574492595</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3399,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3428,7 +3448,1075 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.608437561499272</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0036607031709898</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0009608085151832</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.73760726857557</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5310734463276841</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0037590122238962</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0066540547537562</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0137086212594877</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0499204810610391</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.6690588763893091</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0446927374301676</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.793296089385475</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0003186206956496</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0021222968576057</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0017664183214384</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.0861137015269359</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.675977653631285</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0066329386251514</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.004984180835717</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.039573926570632</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.435754189944134</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0004993164730006</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0010332004755749</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.24829118250171</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.115158361840897</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.932584269662921</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0225705403138983</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0149081632653061</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0622490822938797</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.7651030614880791</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0158988489740238</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0501443829271408</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0341117111099161</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-3.2646507133519</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>111.58</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.35760514340872</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-16.2280123268786</v>
+      </c>
+      <c r="M41" t="n">
+        <v>19.143103907387</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.11292807260147</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0940044971752778</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.583311135411249</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.344890958262339</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.4596971611068</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.20948086257967</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4685</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0084443581780538</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0311416801636918</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0141165228562359</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-1.80242437098267</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>112.29</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.9662698412698409</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-1.43936591718656</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.48735503344938</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.8605128161633639</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangaatua at u/s Woodville STP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.704247481502542</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.962</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0799120095124852</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.157451352441294</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.21716490993511</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.34035574492595</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1842395</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5530097</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_9c</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangaatuaatusWoodvilleSTP_28a4b7b3a1.xlsx
+++ b/trend_results/Rivers/MangaatuaatusWoodvilleSTP_28a4b7b3a1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.281558869185208</v>
+        <v>0.004069216878238</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.970588235294118</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.125</v>
+        <v>0.59</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0728073089700997</v>
+        <v>-0.326116071428571</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.267888447561062</v>
+        <v>-0.453295543871085</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1035614014308</v>
+        <v>-0.14992461951683</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.4717607973422</v>
+        <v>-55.2739104116223</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.12348928863963</v>
+        <v>0.305785100884614</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.932203389830508</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.859999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.114140625</v>
+        <v>-0.0725272978187701</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.200037922083844</v>
+        <v>-0.162910046630704</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0045695206575072</v>
+        <v>0.0477540767866707</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.15761282961461</v>
+        <v>-0.733339715053287</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.120568766863193</v>
+        <v>0.275605077391667</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001003434065934</v>
+        <v>0.0004537267080745</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0004022617108592</v>
+        <v>-0.0007765202354477</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0022519889450133</v>
+        <v>0.0018262993098926</v>
       </c>
       <c r="N4" t="n">
-        <v>4.36275680840898</v>
+        <v>2.06239412761152</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.659863456968702</v>
+        <v>0.254435554106669</v>
       </c>
       <c r="G5" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H5" t="n">
-        <v>0.830508474576271</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="K5" t="n">
-        <v>-17.0968085106383</v>
+        <v>20.8714285714286</v>
       </c>
       <c r="L5" t="n">
-        <v>-92.3674108570705</v>
+        <v>-34.8575291986585</v>
       </c>
       <c r="M5" t="n">
-        <v>52.2222919234943</v>
+        <v>87.2552599305253</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.88563829787234</v>
+        <v>5.09059233449477</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.0519675092752628</v>
+        <v>0.06456846821398531</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7692307692307691</v>
+        <v>0.763636363636364</v>
       </c>
       <c r="H6" t="n">
-        <v>0.25</v>
+        <v>0.254545454545455</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.124048129909595</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.271186440677966</v>
+        <v>0.305084745762712</v>
       </c>
       <c r="H7" t="n">
         <v>0.203389830508475</v>
@@ -1043,16 +1043,16 @@
         <v>0.004</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001651220614828</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.000118341043153</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0006681333110091</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4.12805153707052</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0066966565194988</v>
+        <v>0.0036345044985847</v>
       </c>
       <c r="G8" t="n">
         <v>0.101694915254237</v>
       </c>
       <c r="H8" t="n">
-        <v>0.88135593220339</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.282</v>
+        <v>0.265</v>
       </c>
       <c r="K8" t="n">
-        <v>0.029758686778176</v>
+        <v>0.0187890210211137</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009598001442351799</v>
+        <v>0.0095163566269826</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0598177137261453</v>
+        <v>0.0364748705471642</v>
       </c>
       <c r="N8" t="n">
-        <v>10.5527258078638</v>
+        <v>7.09019661174103</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.309714695905521</v>
+        <v>0.177090912035904</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.741379310344828</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.535</v>
+        <v>7.57</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0141023166023176</v>
+        <v>-0.0203293135435988</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0484178506683626</v>
+        <v>-0.0542094459244432</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0265334293533551</v>
+        <v>0.012963620230701</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.187157486427572</v>
+        <v>-0.268551037564053</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0172131678581857</v>
+        <v>0.0066966565194988</v>
       </c>
       <c r="G10" t="n">
         <v>0.0338983050847458</v>
       </c>
       <c r="H10" t="n">
-        <v>0.864406779661017</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.325</v>
+        <v>0.31</v>
       </c>
       <c r="K10" t="n">
         <v>0.0204739817310572</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0043515206493629</v>
+        <v>0.008486104686819901</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0650304304695294</v>
+        <v>0.0404726027571388</v>
       </c>
       <c r="N10" t="n">
-        <v>6.29968668647914</v>
+        <v>6.6045102358249</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.518440039904685</v>
+        <v>0.0004366640811595</v>
       </c>
       <c r="G11" t="n">
-        <v>0.203389830508475</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.372881355932203</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>0.58</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0360750731123715</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.496938775510204</v>
+        <v>0.0202829377510624</v>
       </c>
       <c r="M11" t="n">
-        <v>0.515183308630638</v>
+        <v>0.0784488536920958</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>6.21984019178819</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.139508156605682</v>
+        <v>0.178063093965005</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.813559322033898</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.63</v>
+        <v>0.04</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0204621848739496</v>
+        <v>0.0018244255744255</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0126404354429957</v>
+        <v>-0.0010969875725826</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0795093107229473</v>
+        <v>0.0053782087879332</v>
       </c>
       <c r="N12" t="n">
-        <v>3.24796585300787</v>
+        <v>4.56106393606394</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.706439773333282</v>
+        <v>0.0355984446376258</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.711864406779661</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.044</v>
+        <v>2.54</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0017588282504012</v>
+        <v>0.536621174877754</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0044435524014672</v>
+        <v>0.0414301753488961</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0033347944389048</v>
+        <v>1.033469408868</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.9973369327302</v>
+        <v>21.126817908573</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.442467978937887</v>
+        <v>0.0004415311318369</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.966101694915254</v>
+        <v>0.8117647058823531</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.64</v>
+        <v>1.24</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0541475741239892</v>
+        <v>-0.142673883261419</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.181306167438023</v>
+        <v>-0.200772945660485</v>
       </c>
       <c r="M14" t="n">
-        <v>0.513018768714209</v>
+        <v>-0.0720888157894737</v>
       </c>
       <c r="N14" t="n">
-        <v>2.05104447439353</v>
+        <v>-11.5059583275338</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.008975966745231</v>
+        <v>0.048166981998979</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.817204301075269</v>
+        <v>0.8389830508474579</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.3</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0938598913433908</v>
+        <v>-0.0466773162939296</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.161234945531912</v>
+        <v>-0.0892413009514738</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0273608350969862</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-7.21999164179929</v>
+        <v>-0.473400773772106</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.003558017799815</v>
+        <v>0.0022843054758336</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.864406779661017</v>
+        <v>0.327731092436975</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.890000000000001</v>
+        <v>0.021</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0729070450097847</v>
+        <v>0.0007051158301158</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.103248708047505</v>
+        <v>0.000257629120623</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0328419612542744</v>
+        <v>0.0011638927550447</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.737179423759198</v>
+        <v>3.357694429123</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.736204371116607</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.008403361344537799</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.789915966386555</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0020842822951727</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.310924369747899</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.021</v>
+        <v>455</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000799671592775</v>
+        <v>-7.62743236829616</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002499123724164</v>
+        <v>-27.0776418986102</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0012405901785208</v>
+        <v>12.7257650294777</v>
       </c>
       <c r="N17" t="n">
-        <v>3.80795996559543</v>
+        <v>-1.67635876226289</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.858302845754809</v>
+        <v>0.05240286951529</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008403361344537799</v>
+        <v>0.792792792792793</v>
       </c>
       <c r="H18" t="n">
-        <v>0.773109243697479</v>
+        <v>0.207207207207207</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>490</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-13.0983245149912</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-31.6959426720467</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>7.19403966038378</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-2.67312745203902</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,19 +2116,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.283179131381417</v>
+        <v>0.620540408476254</v>
       </c>
       <c r="G19" t="n">
-        <v>0.783783783783784</v>
+        <v>0.243697478991597</v>
       </c>
       <c r="H19" t="n">
-        <v>0.216216216216216</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.310652675895724</v>
+        <v>0.0356402702407338</v>
       </c>
       <c r="G20" t="n">
-        <v>0.19327731092437</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.117647058823529</v>
+        <v>0.831932773109244</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004</v>
+        <v>0.29</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0025756938125568</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001999178981937</v>
+        <v>0.0079230133732932</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.888170280192024</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0005555766204334</v>
+        <v>0.274727201476235</v>
       </c>
       <c r="G21" t="n">
-        <v>0.19327731092437</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.773109243697479</v>
+        <v>0.547008547008547</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.278</v>
+        <v>7.54</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0046980706075533</v>
+        <v>-0.0034631964707881</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0007887639130755</v>
+        <v>-0.0154603174603175</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0120622971488679</v>
+        <v>0.006286574870912</v>
       </c>
       <c r="N21" t="n">
-        <v>1.68995345595445</v>
+        <v>-0.0459309876762356</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.020410262419513</v>
+        <v>0.0538305769666981</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="H22" t="n">
-        <v>0.555555555555556</v>
+        <v>0.840336134453782</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.56</v>
+        <v>0.3172</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0154985855728431</v>
+        <v>0.0035747872340425</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0282559060565953</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0029310610169773</v>
+        <v>0.0083906930398913</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.205007745672528</v>
+        <v>1.12698210404872</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,35 +2472,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0014047046782148</v>
+        <v>0.0554388460485158</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0672268907563025</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.781512605042017</v>
+        <v>0.739495798319328</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0053977832512315</v>
+        <v>0.009986329460013601</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0020068681318681</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0128822431585626</v>
+        <v>0.0211984407205252</v>
       </c>
       <c r="N23" t="n">
-        <v>1.74122040362307</v>
+        <v>1.58513166031963</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.436164263747064</v>
+        <v>0.0879639886598893</v>
       </c>
       <c r="G24" t="n">
-        <v>0.134453781512605</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.285714285714286</v>
+        <v>0.512605042016807</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>0.042</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0007480798771121</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.07114727923030439</v>
+        <v>-0.0001361399851222</v>
       </c>
       <c r="M24" t="n">
-        <v>0.166704701049749</v>
+        <v>0.0019841093729287</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.7811425645527</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0065165276279803</v>
+        <v>0.0717222190360539</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.764705882352941</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0128609154929577</v>
+        <v>0.07776614010989009</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0038652546086791</v>
+        <v>-0.0039839479906268</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0300938198458318</v>
+        <v>0.194387858238908</v>
       </c>
       <c r="N25" t="n">
-        <v>2.14348591549296</v>
+        <v>2.88022741147741</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0658379978055995</v>
+        <v>0.006154656736724</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0071942446043165</v>
       </c>
       <c r="H26" t="n">
-        <v>0.495798319327731</v>
+        <v>0.633093525179856</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.041</v>
+        <v>1.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0008256103074141</v>
+        <v>-0.0398309705561614</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.0754428053084901</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0019445430346051</v>
+        <v>-0.0099751596072374</v>
       </c>
       <c r="N26" t="n">
-        <v>2.01368367661977</v>
+        <v>-3.06392081201242</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.224247300426228</v>
+        <v>0.0044265497384089</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9327731092436971</v>
+        <v>0.819209039548023</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.68</v>
+        <v>9.98</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0285909980430528</v>
+        <v>-0.0390508416742494</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0330719560281071</v>
+        <v>-0.068000481473954</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0851308582910676</v>
+        <v>-0.0166173794358508</v>
       </c>
       <c r="N27" t="n">
-        <v>1.06682828518854</v>
+        <v>-0.391290998739974</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.01090277057084</v>
+        <v>0.5491170477910891</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0067567567567567</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.621621621621622</v>
+        <v>0.252808988764045</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.4</v>
+        <v>0.022</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0401373626373627</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0822829189123133</v>
+        <v>-0.0002436277044019</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0099608943520433</v>
+        <v>0.0002078519679733</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.86695447409733</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.712207664429389</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0056179775280898</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.7752808988764049</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2.30946446859726e-05</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.835227272727273</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>10.045</v>
+        <v>494</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.06600153426525759</v>
+        <v>-3.6953662484824</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0927586000484176</v>
+        <v>-16.3342943033706</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0382477210037384</v>
+        <v>7.80287223650041</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.657058579046865</v>
+        <v>-0.74804984787093</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,43 +3098,43 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.436190886966216</v>
+        <v>0.9812130223230749</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.6941176470588239</v>
       </c>
       <c r="H30" t="n">
-        <v>0.240223463687151</v>
+        <v>0.311764705882353</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.022</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0001999527934922</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0002103252071808</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.262603587249688</v>
+        <v>0.44119015745004</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0055865921787709</v>
+        <v>0.29585798816568</v>
       </c>
       <c r="H31" t="n">
-        <v>0.748603351955307</v>
+        <v>0.09467455621301769</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>488</v>
+        <v>0.004</v>
       </c>
       <c r="K31" t="n">
-        <v>4.48710073710074</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-7.56852799289902</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>16.9481920336172</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.919487855963266</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.897858259151378</v>
+        <v>0.648285836162135</v>
       </c>
       <c r="G32" t="n">
-        <v>0.701754385964912</v>
+        <v>0.14792899408284</v>
       </c>
       <c r="H32" t="n">
-        <v>0.321637426900585</v>
+        <v>0.798816568047337</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.316</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0041292657705257</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0007752366486134</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.149308615910572</v>
+        <v>0.774112504274286</v>
       </c>
       <c r="G33" t="n">
-        <v>0.280254777070064</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.101910828025478</v>
+        <v>0.511363636363636</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004</v>
+        <v>7.54</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0040685200545441</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0051114860660384</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0001425644028103</v>
+        <v>0.0135656300261239</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.0539591519170306</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3469,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.608437561499272</v>
+        <v>0.892330567166377</v>
       </c>
       <c r="G34" t="n">
-        <v>0.15625</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7875</v>
+        <v>0.848314606741573</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.367</v>
+        <v>0.37725</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.0012924088708695</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0036607031709898</v>
+        <v>-0.0066027614234663</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0009608085151832</v>
+        <v>0.0004213123026118</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-0.342586844498231</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.73760726857557</v>
+        <v>0.787815718636527</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5310734463276841</v>
+        <v>0.679775280898876</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.53</v>
+        <v>0.6615</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0037590122238962</v>
+        <v>-0.0026799366105206</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0066540547537562</v>
+        <v>-0.0092731198112372</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0137086212594877</v>
+        <v>0.0026126345731994</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0499204810610391</v>
+        <v>-0.405130251023526</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.6690588763893091</v>
+        <v>0.159739730562189</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0446927374301676</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.793296089385475</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.37</v>
+        <v>0.041</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0003186206956496</v>
+        <v>0.0002866954474097</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0021222968576057</v>
+        <v>-0.000203425229741</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0017664183214384</v>
+        <v>0.0008428975126705</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.0861137015269359</v>
+        <v>0.699257188804228</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3742,35 +3742,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>0.363802129848499</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.675977653631285</v>
+        <v>0.9269662921348319</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.63</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.0121399031174775</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0066329386251514</v>
+        <v>-0.0389640897128702</v>
       </c>
       <c r="M37" t="n">
-        <v>0.004984180835717</v>
+        <v>0.0504971719703757</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.398029610409097</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.039573926570632</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.435754189944134</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.04</v>
+        <v>0.433</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0004993164730006</v>
+        <v>-0.0088030542397451</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-0.0815445411022508</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0010332004755749</v>
+        <v>0.0341117111099161</v>
       </c>
       <c r="N38" t="n">
-        <v>1.24829118250171</v>
+        <v>-2.03303793065709</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3899,11 +3899,7 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,46 +3909,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.115158361840897</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.932584269662921</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.95</v>
+        <v>131.43</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0225705403138983</v>
+        <v>2.60872603314738</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0149081632653061</v>
+        <v>-12.4229071921383</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0622490822938797</v>
+        <v>19.0666770021319</v>
       </c>
       <c r="N39" t="n">
-        <v>0.7651030614880791</v>
+        <v>1.98487866784401</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3957,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3990,11 +3986,7 @@
           <t>Mana_9c</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4004,7 +3996,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,7 +4011,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.40324797025367</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4031,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.487</v>
+        <v>6.367</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0158988489740238</v>
+        <v>0.102220334540602</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0501443829271408</v>
+        <v>-0.418315531775316</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0341117111099161</v>
+        <v>0.344890958262339</v>
       </c>
       <c r="N40" t="n">
-        <v>-3.2646507133519</v>
+        <v>1.60547093671434</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4091,11 +4083,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4106,7 +4098,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
+        <v>0.295752518497458</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4118,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>111.58</v>
+        <v>0.4415</v>
       </c>
       <c r="K41" t="n">
-        <v>2.35760514340872</v>
+        <v>-0.0050353900470746</v>
       </c>
       <c r="L41" t="n">
-        <v>-16.2280123268786</v>
+        <v>-0.0282698419610524</v>
       </c>
       <c r="M41" t="n">
-        <v>19.143103907387</v>
+        <v>0.0170452439602188</v>
       </c>
       <c r="N41" t="n">
-        <v>2.11292807260147</v>
+        <v>-1.14051869695915</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4139,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4178,11 +4170,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4193,7 +4185,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.40324797025367</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4205,19 +4197,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.44</v>
+        <v>112.29</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0940044971752778</v>
+        <v>1.1706149068323</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.583311135411249</v>
+        <v>-1.43208075054181</v>
       </c>
       <c r="M42" t="n">
-        <v>0.344890958262339</v>
+        <v>3.69160578628124</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.4596971611068</v>
+        <v>1.04249256998156</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4265,7 +4257,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4280,31 +4272,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.20948086257967</v>
+        <v>0.946297681834873</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4685</v>
+        <v>5.962</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0084443581780538</v>
+        <v>0.134752427184466</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0311416801636918</v>
+        <v>-0.0078866224272615</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0141165228562359</v>
+        <v>0.21716490993511</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.80242437098267</v>
+        <v>2.26018831238621</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4305,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4343,180 +4335,6 @@
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mangaatua at u/s Woodville STP</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.360257393568128</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>112.29</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.9662698412698409</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-1.43936591718656</v>
-      </c>
-      <c r="M44" t="n">
-        <v>2.48735503344938</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-0.8605128161633639</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>1842395</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5530097</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Upper Gorge</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Mana_9c</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Mangaatua at u/s Woodville STP</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>10</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.704247481502542</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5.962</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.0799120095124852</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.157451352441294</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.21716490993511</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1.34035574492595</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1842395</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5530097</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Upper Gorge</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Mana_9c</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangaatuaatusWoodvilleSTP_28a4b7b3a1.xlsx
+++ b/trend_results/Rivers/MangaatuaatusWoodvilleSTP_28a4b7b3a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="64">
   <si>
     <t>site name</t>
   </si>
@@ -148,40 +148,37 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
     <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -660,31 +657,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.004069216878238</v>
+        <v>0.151137367613447</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.923076923076923</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.59</v>
+        <v>0.175</v>
       </c>
       <c r="K2">
-        <v>-0.326116071428571</v>
+        <v>-0.167239010989011</v>
       </c>
       <c r="L2">
-        <v>-0.453295543871085</v>
+        <v>-0.358244550062266</v>
       </c>
       <c r="M2">
-        <v>-0.14992461951683</v>
+        <v>0.014890947283333</v>
       </c>
       <c r="N2">
-        <v>-55.2739104116223</v>
+        <v>-95.5651491365777</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -699,19 +696,19 @@
         <v>5530097</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" t="s">
         <v>59</v>
-      </c>
-      <c r="W2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,13 +728,13 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.305785100884614</v>
+        <v>0.97432583371837</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.915254237288136</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -746,16 +743,16 @@
         <v>9.890000000000001</v>
       </c>
       <c r="K3">
-        <v>-0.0725272978187701</v>
+        <v>0.101351641779273</v>
       </c>
       <c r="L3">
-        <v>-0.162910046630704</v>
+        <v>0.013027480185931</v>
       </c>
       <c r="M3">
-        <v>0.0477540767866707</v>
+        <v>0.168114110419269</v>
       </c>
       <c r="N3">
-        <v>-0.733339715053287</v>
+        <v>1.02478909786929</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -770,19 +767,19 @@
         <v>5530097</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,13 +799,13 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.275605077391667</v>
+        <v>0.662411368934275</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.508474576271186</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -817,16 +814,16 @@
         <v>0.022</v>
       </c>
       <c r="K4">
-        <v>0.0004537267080745</v>
+        <v>-0.0003261160714285</v>
       </c>
       <c r="L4">
-        <v>-0.0007765202354477</v>
+        <v>-0.0017392857142857</v>
       </c>
       <c r="M4">
-        <v>0.0018262993098926</v>
+        <v>0.0010405549018197</v>
       </c>
       <c r="N4">
-        <v>2.06239412761152</v>
+        <v>-1.48234577922078</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -841,19 +838,19 @@
         <v>5530097</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -873,37 +870,37 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.254435554106669</v>
+        <v>0.864056599686311</v>
       </c>
       <c r="G5">
-        <v>0.0169491525423729</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H5">
-        <v>0.898305084745763</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K5">
-        <v>20.8714285714286</v>
+        <v>-33.8006321112516</v>
       </c>
       <c r="L5">
-        <v>-34.8575291986585</v>
+        <v>-86.6287031477906</v>
       </c>
       <c r="M5">
-        <v>87.2552599305253</v>
+        <v>14.5185852546118</v>
       </c>
       <c r="N5">
-        <v>5.09059233449477</v>
+        <v>-8.894903187171471</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1842395</v>
@@ -912,19 +909,19 @@
         <v>5530097</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,13 +941,13 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.06456846821398531</v>
+        <v>0.439677148540803</v>
       </c>
       <c r="G6">
-        <v>0.763636363636364</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="H6">
-        <v>0.254545454545455</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -974,7 +971,7 @@
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>1842395</v>
@@ -983,19 +980,19 @@
         <v>5530097</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1015,10 +1012,10 @@
         <v>41</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.996410996063285</v>
       </c>
       <c r="G7">
-        <v>0.305084745762712</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="H7">
         <v>0.203389830508475</v>
@@ -1027,19 +1024,19 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0005005167529838</v>
       </c>
       <c r="L7">
-        <v>-0.000118341043153</v>
+        <v>-0.0009778372322551999</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-16.6838917661286</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
@@ -1054,19 +1051,19 @@
         <v>5530097</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1086,13 +1083,13 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.0036345044985847</v>
+        <v>0.23250517689703</v>
       </c>
       <c r="G8">
-        <v>0.101694915254237</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H8">
-        <v>0.898305084745763</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1101,16 +1098,16 @@
         <v>0.265</v>
       </c>
       <c r="K8">
-        <v>0.0187890210211137</v>
+        <v>0.0137351010596546</v>
       </c>
       <c r="L8">
-        <v>0.0095163566269826</v>
+        <v>-0.0136901223138238</v>
       </c>
       <c r="M8">
-        <v>0.0364748705471642</v>
+        <v>0.0267537236976006</v>
       </c>
       <c r="N8">
-        <v>7.09019661174103</v>
+        <v>5.18305700364326</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
@@ -1125,19 +1122,19 @@
         <v>5530097</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1157,37 +1154,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.177090912035904</v>
+        <v>0.701995446999675</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.672413793103448</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.57</v>
+        <v>7.54</v>
       </c>
       <c r="K9">
-        <v>-0.0203293135435988</v>
+        <v>0.008600863422292</v>
       </c>
       <c r="L9">
-        <v>-0.0542094459244432</v>
+        <v>-0.0224175624905022</v>
       </c>
       <c r="M9">
-        <v>0.012963620230701</v>
+        <v>0.0439563986274544</v>
       </c>
       <c r="N9">
-        <v>-0.268551037564053</v>
+        <v>0.114069806661698</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1842395</v>
@@ -1196,16 +1193,16 @@
         <v>5530097</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,37 +1222,37 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.0066966565194988</v>
+        <v>0.358400258497247</v>
       </c>
       <c r="G10">
-        <v>0.0338983050847458</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0.915254237288136</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.31</v>
+        <v>0.289</v>
       </c>
       <c r="K10">
-        <v>0.0204739817310572</v>
+        <v>0.0109971595368917</v>
       </c>
       <c r="L10">
-        <v>0.008486104686819901</v>
+        <v>-0.0121779037328761</v>
       </c>
       <c r="M10">
-        <v>0.0404726027571388</v>
+        <v>0.0247936618815317</v>
       </c>
       <c r="N10">
-        <v>6.6045102358249</v>
+        <v>3.80524551449539</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <v>1842395</v>
@@ -1264,19 +1261,19 @@
         <v>5530097</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,37 +1293,37 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.0004366640811595</v>
+        <v>0.332091660746537</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.830508474576271</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="K11">
-        <v>0.0360750731123715</v>
+        <v>0.0099865580847723</v>
       </c>
       <c r="L11">
-        <v>0.0202829377510624</v>
+        <v>-0.0209476816328395</v>
       </c>
       <c r="M11">
-        <v>0.0784488536920958</v>
+        <v>0.0352630786920938</v>
       </c>
       <c r="N11">
-        <v>6.21984019178819</v>
+        <v>1.75202773417059</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1842395</v>
@@ -1335,19 +1332,19 @@
         <v>5530097</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,13 +1364,13 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.178063093965005</v>
+        <v>0.652752120951155</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.644067796610169</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1382,16 +1379,16 @@
         <v>0.04</v>
       </c>
       <c r="K12">
-        <v>0.0018244255744255</v>
+        <v>-0.0007247023809523</v>
       </c>
       <c r="L12">
-        <v>-0.0010969875725826</v>
+        <v>-0.0035797192610802</v>
       </c>
       <c r="M12">
-        <v>0.0053782087879332</v>
+        <v>0.0021340739958886</v>
       </c>
       <c r="N12">
-        <v>4.56106393606394</v>
+        <v>-1.81175595238095</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
@@ -1406,19 +1403,19 @@
         <v>5530097</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,7 +1435,7 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.0355984446376258</v>
+        <v>0.528766206292791</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1453,22 +1450,22 @@
         <v>2.54</v>
       </c>
       <c r="K13">
-        <v>0.536621174877754</v>
+        <v>-0.0181669893130671</v>
       </c>
       <c r="L13">
-        <v>0.0414301753488961</v>
+        <v>-0.254266653661738</v>
       </c>
       <c r="M13">
-        <v>1.033469408868</v>
+        <v>0.442324084280884</v>
       </c>
       <c r="N13">
-        <v>21.126817908573</v>
+        <v>-0.715235799727051</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1842395</v>
@@ -1477,19 +1474,19 @@
         <v>5530097</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,37 +1506,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.0004415311318369</v>
+        <v>4.5055709048003E-05</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.8117647058823531</v>
+        <v>0.8552631578947369</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.24</v>
+        <v>1.216</v>
       </c>
       <c r="K14">
-        <v>-0.142673883261419</v>
+        <v>-0.187408035714286</v>
       </c>
       <c r="L14">
-        <v>-0.200772945660485</v>
+        <v>-0.240366277116279</v>
       </c>
       <c r="M14">
-        <v>-0.0720888157894737</v>
+        <v>-0.121823796811296</v>
       </c>
       <c r="N14">
-        <v>-11.5059583275338</v>
+        <v>-15.4118450422932</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1842395</v>
@@ -1548,19 +1545,19 @@
         <v>5530097</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" t="s">
         <v>59</v>
-      </c>
-      <c r="W14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,16 +1574,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>0.048166981998979</v>
+        <v>0.531268873425055</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.8389830508474579</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1595,22 +1592,22 @@
         <v>9.859999999999999</v>
       </c>
       <c r="K15">
-        <v>-0.0466773162939296</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-0.0892413009514738</v>
+        <v>-0.0398684470551546</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0333352489906932</v>
       </c>
       <c r="N15">
-        <v>-0.473400773772106</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15">
         <v>1842395</v>
@@ -1619,19 +1616,19 @@
         <v>5530097</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,13 +1648,13 @@
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.0022843054758336</v>
+        <v>0.105007930124287</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.327731092436975</v>
+        <v>0.319327731092437</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1666,16 +1663,16 @@
         <v>0.021</v>
       </c>
       <c r="K16">
-        <v>0.0007051158301158</v>
+        <v>0.0002859099804305</v>
       </c>
       <c r="L16">
-        <v>0.000257629120623</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0011638927550447</v>
+        <v>0.0007052282805952</v>
       </c>
       <c r="N16">
-        <v>3.357694429123</v>
+        <v>1.36147609728823</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
@@ -1690,19 +1687,19 @@
         <v>5530097</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1722,37 +1719,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.736204371116607</v>
+        <v>0.946576621191736</v>
       </c>
       <c r="G17">
-        <v>0.008403361344537799</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H17">
-        <v>0.789915966386555</v>
+        <v>0.781512605042017</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="K17">
-        <v>-7.62743236829616</v>
+        <v>-17.6876513317191</v>
       </c>
       <c r="L17">
-        <v>-27.0776418986102</v>
+        <v>-35.9947309163833</v>
       </c>
       <c r="M17">
-        <v>12.7257650294777</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>-1.67635876226289</v>
+        <v>-4.11340728644631</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q17">
         <v>1842395</v>
@@ -1761,19 +1758,19 @@
         <v>5530097</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1793,13 +1790,13 @@
         <v>41</v>
       </c>
       <c r="F18">
-        <v>0.05240286951529</v>
+        <v>0.182576818115613</v>
       </c>
       <c r="G18">
-        <v>0.792792792792793</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="H18">
-        <v>0.207207207207207</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1823,7 +1820,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q18">
         <v>1842395</v>
@@ -1832,19 +1829,19 @@
         <v>5530097</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1864,13 +1861,13 @@
         <v>41</v>
       </c>
       <c r="F19">
-        <v>0.620540408476254</v>
+        <v>0.999319071492572</v>
       </c>
       <c r="G19">
-        <v>0.243697478991597</v>
+        <v>0.302521008403361</v>
       </c>
       <c r="H19">
-        <v>0.117647058823529</v>
+        <v>0.109243697478992</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1879,16 +1876,16 @@
         <v>0.004</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.0001251284686536</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.000370067710331</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-3.12821171634121</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
@@ -1903,19 +1900,19 @@
         <v>5530097</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1935,37 +1932,37 @@
         <v>41</v>
       </c>
       <c r="F20">
-        <v>0.0356402702407338</v>
+        <v>0.165022923622822</v>
       </c>
       <c r="G20">
-        <v>0.142857142857143</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="H20">
-        <v>0.831932773109244</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.29</v>
+        <v>0.278</v>
       </c>
       <c r="K20">
-        <v>0.0025756938125568</v>
+        <v>0.0012945065430752</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.001013487306637</v>
       </c>
       <c r="M20">
-        <v>0.0079230133732932</v>
+        <v>0.0076371359731915</v>
       </c>
       <c r="N20">
-        <v>0.888170280192024</v>
+        <v>0.465649835638577</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q20">
         <v>1842395</v>
@@ -1974,19 +1971,19 @@
         <v>5530097</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>0.274727201476235</v>
+        <v>0.520414034443988</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.547008547008547</v>
+        <v>0.5169491525423729</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2021,22 +2018,22 @@
         <v>7.54</v>
       </c>
       <c r="K21">
-        <v>-0.0034631964707881</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>-0.0154603174603175</v>
+        <v>-0.0102625098563301</v>
       </c>
       <c r="M21">
-        <v>0.006286574870912</v>
+        <v>0.010900927378345</v>
       </c>
       <c r="N21">
-        <v>-0.0459309876762356</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>1842395</v>
@@ -2045,16 +2042,16 @@
         <v>5530097</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,40 +2068,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>0.0538305769666981</v>
+        <v>0.246970963889834</v>
       </c>
       <c r="G22">
         <v>0.0672268907563025</v>
       </c>
       <c r="H22">
-        <v>0.840336134453782</v>
+        <v>0.8067226890756301</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.3172</v>
+        <v>0.311</v>
       </c>
       <c r="K22">
-        <v>0.0035747872340425</v>
+        <v>0.0011995073891625</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-0.0012431390614438</v>
       </c>
       <c r="M22">
-        <v>0.0083906930398913</v>
+        <v>0.0074925666723783</v>
       </c>
       <c r="N22">
-        <v>1.12698210404872</v>
+        <v>0.385693694264489</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q22">
         <v>1842395</v>
@@ -2113,19 +2110,19 @@
         <v>5530097</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2145,13 +2142,13 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.0554388460485158</v>
+        <v>0.4274194371113</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.739495798319328</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2160,22 +2157,22 @@
         <v>0.63</v>
       </c>
       <c r="K23">
-        <v>0.009986329460013601</v>
+        <v>0.0024830047586675</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-0.0100067027188885</v>
       </c>
       <c r="M23">
-        <v>0.0211984407205252</v>
+        <v>0.0111960949694704</v>
       </c>
       <c r="N23">
-        <v>1.58513166031963</v>
+        <v>0.394127739471044</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23">
         <v>1842395</v>
@@ -2184,19 +2181,19 @@
         <v>5530097</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F24">
-        <v>0.0879639886598893</v>
+        <v>0.572928755072569</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.512605042016807</v>
+        <v>0.521008403361345</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2231,22 +2228,22 @@
         <v>0.042</v>
       </c>
       <c r="K24">
-        <v>0.0007480798771121</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>-0.0001361399851222</v>
+        <v>-0.0010002282062984</v>
       </c>
       <c r="M24">
-        <v>0.0019841093729287</v>
+        <v>0.0008676264608931</v>
       </c>
       <c r="N24">
-        <v>1.7811425645527</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1842395</v>
@@ -2255,19 +2252,19 @@
         <v>5530097</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,7 +2284,7 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.0717222190360539</v>
+        <v>0.417219444131094</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2299,25 +2296,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="K25">
-        <v>0.07776614010989009</v>
+        <v>0.0033234758871701</v>
       </c>
       <c r="L25">
-        <v>-0.0039839479906268</v>
+        <v>-0.0651160884740672</v>
       </c>
       <c r="M25">
-        <v>0.194387858238908</v>
+        <v>0.0920338174414623</v>
       </c>
       <c r="N25">
-        <v>2.88022741147741</v>
+        <v>0.128319532323172</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1842395</v>
@@ -2326,19 +2323,19 @@
         <v>5530097</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,37 +2355,37 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.006154656736724</v>
+        <v>0.001687659712664</v>
       </c>
       <c r="G26">
-        <v>0.0071942446043165</v>
+        <v>0.0076923076923076</v>
       </c>
       <c r="H26">
-        <v>0.633093525179856</v>
+        <v>0.684615384615385</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="K26">
-        <v>-0.0398309705561614</v>
+        <v>-0.0560354315715419</v>
       </c>
       <c r="L26">
-        <v>-0.0754428053084901</v>
+        <v>-0.08570689435312109</v>
       </c>
       <c r="M26">
-        <v>-0.0099751596072374</v>
+        <v>-0.0205728841630819</v>
       </c>
       <c r="N26">
-        <v>-3.06392081201242</v>
+        <v>-4.41223870642063</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q26">
         <v>1842395</v>
@@ -2397,19 +2394,19 @@
         <v>5530097</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V26" t="s">
+        <v>58</v>
+      </c>
+      <c r="W26" t="s">
         <v>59</v>
-      </c>
-      <c r="W26" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,37 +2426,37 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.0044265497384089</v>
+        <v>0.033783819336185</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.819209039548023</v>
+        <v>0.797752808988764</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.98</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K27">
-        <v>-0.0390508416742494</v>
+        <v>-0.0263744145199064</v>
       </c>
       <c r="L27">
-        <v>-0.068000481473954</v>
+        <v>-0.0484093820490625</v>
       </c>
       <c r="M27">
-        <v>-0.0166173794358508</v>
+        <v>-0.0012237692079325</v>
       </c>
       <c r="N27">
-        <v>-0.391290998739974</v>
+        <v>-0.264537758474487</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q27">
         <v>1842395</v>
@@ -2468,19 +2465,19 @@
         <v>5530097</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2500,13 +2497,13 @@
         <v>42</v>
       </c>
       <c r="F28">
-        <v>0.5491170477910891</v>
+        <v>0.445851750061474</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.252808988764045</v>
+        <v>0.240223463687151</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2518,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.0002436277044019</v>
+        <v>-0.0001843765774861</v>
       </c>
       <c r="M28">
-        <v>0.0002078519679733</v>
+        <v>0.0002258812615955</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2530,7 +2527,7 @@
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q28">
         <v>1842395</v>
@@ -2539,19 +2536,19 @@
         <v>5530097</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2571,37 +2568,37 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.712207664429389</v>
+        <v>0.991352620328129</v>
       </c>
       <c r="G29">
-        <v>0.0056179775280898</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="H29">
-        <v>0.7752808988764049</v>
+        <v>0.782122905027933</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K29">
-        <v>-3.6953662484824</v>
+        <v>-16.1987206823028</v>
       </c>
       <c r="L29">
-        <v>-16.3342943033706</v>
+        <v>-26.7809281156208</v>
       </c>
       <c r="M29">
-        <v>7.80287223650041</v>
+        <v>-4.67185714296474</v>
       </c>
       <c r="N29">
-        <v>-0.74804984787093</v>
+        <v>-3.31940997588172</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q29">
         <v>1842395</v>
@@ -2610,19 +2607,19 @@
         <v>5530097</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2642,13 +2639,13 @@
         <v>41</v>
       </c>
       <c r="F30">
-        <v>0.9812130223230749</v>
+        <v>0.996382610323043</v>
       </c>
       <c r="G30">
-        <v>0.6941176470588239</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="H30">
-        <v>0.311764705882353</v>
+        <v>0.304093567251462</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -2672,7 +2669,7 @@
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q30">
         <v>1842395</v>
@@ -2681,19 +2678,19 @@
         <v>5530097</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2713,25 +2710,25 @@
         <v>41</v>
       </c>
       <c r="F31">
-        <v>0.44119015745004</v>
+        <v>0.910073514611626</v>
       </c>
       <c r="G31">
-        <v>0.29585798816568</v>
+        <v>0.307262569832402</v>
       </c>
       <c r="H31">
-        <v>0.09467455621301769</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="I31">
         <v>3</v>
       </c>
       <c r="J31">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-0.0001072162426614</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2743,7 +2740,7 @@
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q31">
         <v>1842395</v>
@@ -2752,19 +2749,19 @@
         <v>5530097</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2781,40 +2778,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32">
-        <v>0.648285836162135</v>
+        <v>0.780182718150448</v>
       </c>
       <c r="G32">
-        <v>0.14792899408284</v>
+        <v>0.145251396648045</v>
       </c>
       <c r="H32">
-        <v>0.798816568047337</v>
+        <v>0.798882681564246</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>0.316</v>
+        <v>0.2931</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>-0.0002927897553382</v>
       </c>
       <c r="L32">
-        <v>-0.0041292657705257</v>
+        <v>-0.0057110181228544</v>
       </c>
       <c r="M32">
-        <v>0.0007752366486134</v>
+        <v>0.0002817247237839</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>-0.0998941505759927</v>
       </c>
       <c r="O32" t="s">
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q32">
         <v>1842395</v>
@@ -2823,19 +2820,19 @@
         <v>5530097</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2855,31 +2852,31 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.774112504274286</v>
+        <v>0.162389114467194</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.511363636363636</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.54</v>
+        <v>7.56</v>
       </c>
       <c r="K33">
-        <v>0.0040685200545441</v>
+        <v>-0.0047327745783627</v>
       </c>
       <c r="L33">
-        <v>-0.0051114860660384</v>
+        <v>-0.0137312030075185</v>
       </c>
       <c r="M33">
-        <v>0.0135656300261239</v>
+        <v>0.0032191453472967</v>
       </c>
       <c r="N33">
-        <v>0.0539591519170306</v>
+        <v>-0.0626028383381311</v>
       </c>
       <c r="O33" t="s">
         <v>43</v>
@@ -2894,16 +2891,16 @@
         <v>5530097</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2923,37 +2920,37 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.892330567166377</v>
+        <v>0.873333539185655</v>
       </c>
       <c r="G34">
-        <v>0.0449438202247191</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="H34">
-        <v>0.848314606741573</v>
+        <v>0.826815642458101</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.37725</v>
+        <v>0.325</v>
       </c>
       <c r="K34">
-        <v>-0.0012924088708695</v>
+        <v>-0.0013412273922744</v>
       </c>
       <c r="L34">
-        <v>-0.0066027614234663</v>
+        <v>-0.0077882670954333</v>
       </c>
       <c r="M34">
-        <v>0.0004213123026118</v>
+        <v>0.0005005533312663</v>
       </c>
       <c r="N34">
-        <v>-0.342586844498231</v>
+        <v>-0.412685351469052</v>
       </c>
       <c r="O34" t="s">
         <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q34">
         <v>1842395</v>
@@ -2962,19 +2959,19 @@
         <v>5530097</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2994,37 +2991,37 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.787815718636527</v>
+        <v>0.89231601162514</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.679775280898876</v>
+        <v>0.659217877094972</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.6615</v>
+        <v>0.63</v>
       </c>
       <c r="K35">
-        <v>-0.0026799366105206</v>
+        <v>-0.0040940109890109</v>
       </c>
       <c r="L35">
-        <v>-0.0092731198112372</v>
+        <v>-0.0101107103909571</v>
       </c>
       <c r="M35">
-        <v>0.0026126345731994</v>
+        <v>0.0014501569875122</v>
       </c>
       <c r="N35">
-        <v>-0.405130251023526</v>
+        <v>-0.649843014128728</v>
       </c>
       <c r="O35" t="s">
         <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q35">
         <v>1842395</v>
@@ -3033,19 +3030,19 @@
         <v>5530097</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,16 +3059,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F36">
-        <v>0.159739730562189</v>
+        <v>0.494024829611099</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.449438202247191</v>
+        <v>0.441340782122905</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3080,16 +3077,16 @@
         <v>0.041</v>
       </c>
       <c r="K36">
-        <v>0.0002866954474097</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>-0.000203425229741</v>
+        <v>-0.0004861357586512</v>
       </c>
       <c r="M36">
-        <v>0.0008428975126705</v>
+        <v>0.0004617572692793</v>
       </c>
       <c r="N36">
-        <v>0.699257188804228</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
         <v>43</v>
@@ -3104,19 +3101,19 @@
         <v>5530097</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3136,37 +3133,37 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.363802129848499</v>
+        <v>0.86932860248691</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.9269662921348319</v>
+        <v>0.927374301675978</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="K37">
-        <v>0.0121399031174775</v>
+        <v>-0.0319258200779654</v>
       </c>
       <c r="L37">
-        <v>-0.0389640897128702</v>
+        <v>-0.100680327258241</v>
       </c>
       <c r="M37">
-        <v>0.0504971719703757</v>
+        <v>0.0148266266571905</v>
       </c>
       <c r="N37">
-        <v>0.398029610409097</v>
+        <v>-1.05365742831569</v>
       </c>
       <c r="O37" t="s">
         <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q37">
         <v>1842395</v>
@@ -3175,19 +3172,19 @@
         <v>5530097</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3207,7 +3204,7 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.231216363225238</v>
+        <v>0.5</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3222,16 +3219,16 @@
         <v>0.433</v>
       </c>
       <c r="K38">
-        <v>-0.0088030542397451</v>
+        <v>0.0055372586067965</v>
       </c>
       <c r="L38">
-        <v>-0.0815445411022508</v>
+        <v>-0.06520132146960179</v>
       </c>
       <c r="M38">
-        <v>0.0341117111099161</v>
+        <v>0.0682130143875786</v>
       </c>
       <c r="N38">
-        <v>-2.03303793065709</v>
+        <v>1.2788126112694</v>
       </c>
       <c r="O38" t="s">
         <v>43</v>
@@ -3246,16 +3243,16 @@
         <v>5530097</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3275,7 +3272,7 @@
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3290,22 +3287,22 @@
         <v>131.43</v>
       </c>
       <c r="K39">
-        <v>2.60872603314738</v>
+        <v>-1.29100634047806</v>
       </c>
       <c r="L39">
-        <v>-12.4229071921383</v>
+        <v>-25.8737460424792</v>
       </c>
       <c r="M39">
-        <v>19.0666770021319</v>
+        <v>6.38298463088887</v>
       </c>
       <c r="N39">
-        <v>1.98487866784401</v>
+        <v>-0.982276756051173</v>
       </c>
       <c r="O39" t="s">
         <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q39">
         <v>1842395</v>
@@ -3314,16 +3311,16 @@
         <v>5530097</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3343,7 +3340,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.59675202974633</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3358,22 +3355,22 @@
         <v>6.367</v>
       </c>
       <c r="K40">
-        <v>0.102220334540602</v>
+        <v>0.201238472137756</v>
       </c>
       <c r="L40">
-        <v>-0.418315531775316</v>
+        <v>-0.107940658243499</v>
       </c>
       <c r="M40">
-        <v>0.344890958262339</v>
+        <v>0.372686783252767</v>
       </c>
       <c r="N40">
-        <v>1.60547093671434</v>
+        <v>3.16064821953441</v>
       </c>
       <c r="O40" t="s">
         <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q40">
         <v>1842395</v>
@@ -3382,16 +3379,16 @@
         <v>5530097</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3411,7 +3408,7 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.295752518497458</v>
+        <v>0.704247481502542</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3426,22 +3423,22 @@
         <v>0.4415</v>
       </c>
       <c r="K41">
-        <v>-0.0050353900470746</v>
+        <v>0.009149796885578799</v>
       </c>
       <c r="L41">
-        <v>-0.0282698419610524</v>
+        <v>-0.0092347427678058</v>
       </c>
       <c r="M41">
-        <v>0.0170452439602188</v>
+        <v>0.0205842924387599</v>
       </c>
       <c r="N41">
-        <v>-1.14051869695915</v>
+        <v>2.07243417566905</v>
       </c>
       <c r="O41" t="s">
         <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q41">
         <v>1842395</v>
@@ -3450,16 +3447,16 @@
         <v>5530097</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3491,25 +3488,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>112.29</v>
+        <v>111.055</v>
       </c>
       <c r="K42">
-        <v>1.1706149068323</v>
+        <v>0.191643518518519</v>
       </c>
       <c r="L42">
-        <v>-1.43208075054181</v>
+        <v>-1.49166097207599</v>
       </c>
       <c r="M42">
-        <v>3.69160578628124</v>
+        <v>3.48502443948668</v>
       </c>
       <c r="N42">
-        <v>1.04249256998156</v>
+        <v>0.172566312654557</v>
       </c>
       <c r="O42" t="s">
         <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q42">
         <v>1842395</v>
@@ -3518,16 +3515,16 @@
         <v>5530097</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3559,25 +3556,25 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>5.962</v>
+        <v>6.2385</v>
       </c>
       <c r="K43">
-        <v>0.134752427184466</v>
+        <v>0.146403952843273</v>
       </c>
       <c r="L43">
-        <v>-0.0078866224272615</v>
+        <v>0.0020877484947282</v>
       </c>
       <c r="M43">
-        <v>0.21716490993511</v>
+        <v>0.220982392685445</v>
       </c>
       <c r="N43">
-        <v>2.26018831238621</v>
+        <v>2.34678132312693</v>
       </c>
       <c r="O43" t="s">
         <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q43">
         <v>1842395</v>
@@ -3586,16 +3583,16 @@
         <v>5530097</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
